--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43017,6 +43017,41 @@
         <v>8212200</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>10575700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43052,6 +43052,41 @@
         <v>10575700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>4590500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43087,6 +43087,41 @@
         <v>4590500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>9060800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43122,6 +43122,41 @@
         <v>9060800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>5795500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43157,6 +43157,41 @@
         <v>5795500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>4559700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43192,6 +43192,41 @@
         <v>4559700</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>6328500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43227,6 +43227,41 @@
         <v>6328500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>6139100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43262,6 +43262,41 @@
         <v>6139100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>9611500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43297,6 +43297,41 @@
         <v>9611500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>8100700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43332,6 +43332,41 @@
         <v>8100700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>7051200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43367,6 +43367,41 @@
         <v>7051200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>8172600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43402,6 +43402,41 @@
         <v>8172600</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>8010000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43437,6 +43437,76 @@
         <v>8010000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>9376500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>12317400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43507,6 +43507,76 @@
         <v>12317400</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>10056500</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>7828800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43577,6 +43577,41 @@
         <v>7828800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>11643900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43612,6 +43612,41 @@
         <v>11643900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>8741600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43647,6 +43647,41 @@
         <v>8741600</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>10299000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43682,6 +43682,41 @@
         <v>10299000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>11867500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43717,6 +43717,76 @@
         <v>11867500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>4623200</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>8304800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43787,6 +43787,41 @@
         <v>8304800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>10811400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43822,6 +43822,41 @@
         <v>10811400</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>2107900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2090"/>
+  <dimension ref="A1:I2091"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73572,6 +73572,41 @@
         <v>2107900</v>
       </c>
     </row>
+    <row r="2091">
+      <c r="A2091" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2091" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2091" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2091" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2091" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2091" t="n">
+        <v>2853900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2091"/>
+  <dimension ref="A1:I2092"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73607,6 +73607,41 @@
         <v>2853900</v>
       </c>
     </row>
+    <row r="2092">
+      <c r="A2092" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2092" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2092" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2092" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2092" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2092" t="n">
+        <v>5996600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2092"/>
+  <dimension ref="A1:I2093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73642,6 +73642,41 @@
         <v>5996600</v>
       </c>
     </row>
+    <row r="2093">
+      <c r="A2093" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2093" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2093" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2093" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2093" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2093" t="n">
+        <v>6128500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2093"/>
+  <dimension ref="A1:I2094"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73677,6 +73677,41 @@
         <v>6128500</v>
       </c>
     </row>
+    <row r="2094">
+      <c r="A2094" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2094" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2094" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2094" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2094" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2094" t="n">
+        <v>4180800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2094"/>
+  <dimension ref="A1:I2095"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73712,6 +73712,41 @@
         <v>4180800</v>
       </c>
     </row>
+    <row r="2095">
+      <c r="A2095" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2095" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2095" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2095" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2095" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2095" t="n">
+        <v>2274500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2095"/>
+  <dimension ref="A1:I2096"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73747,6 +73747,41 @@
         <v>2274500</v>
       </c>
     </row>
+    <row r="2096">
+      <c r="A2096" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2096" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2096" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2096" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2096" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2096" t="n">
+        <v>12585700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2096"/>
+  <dimension ref="A1:I2097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73782,6 +73782,41 @@
         <v>12585700</v>
       </c>
     </row>
+    <row r="2097">
+      <c r="A2097" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2097" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2097" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2097" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2097" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2097" t="n">
+        <v>8970200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2097"/>
+  <dimension ref="A1:I2098"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73817,6 +73817,41 @@
         <v>8970200</v>
       </c>
     </row>
+    <row r="2098">
+      <c r="A2098" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2098" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2098" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2098" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2098" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2098" t="n">
+        <v>9589600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2098"/>
+  <dimension ref="A1:I2099"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73852,6 +73852,41 @@
         <v>9589600</v>
       </c>
     </row>
+    <row r="2099">
+      <c r="A2099" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2099" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2099" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2099" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2099" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2099" t="n">
+        <v>11377600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2099"/>
+  <dimension ref="A1:I2100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73887,6 +73887,41 @@
         <v>11377600</v>
       </c>
     </row>
+    <row r="2100">
+      <c r="A2100" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2100" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2100" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2100" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2100" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2100" t="n">
+        <v>10191000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2100"/>
+  <dimension ref="A1:I2101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73922,6 +73922,41 @@
         <v>10191000</v>
       </c>
     </row>
+    <row r="2101">
+      <c r="A2101" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2101" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2101" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2101" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2101" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2101" t="n">
+        <v>5460100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2101"/>
+  <dimension ref="A1:I2102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73957,6 +73957,41 @@
         <v>5460100</v>
       </c>
     </row>
+    <row r="2102">
+      <c r="A2102" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2102" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2102" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2102" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I2102" t="n">
+        <v>3826200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2102"/>
+  <dimension ref="A1:I2103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73992,6 +73992,41 @@
         <v>3826200</v>
       </c>
     </row>
+    <row r="2103">
+      <c r="A2103" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2103" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2103" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G2103" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H2103" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I2103" t="n">
+        <v>6058900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2103"/>
+  <dimension ref="A1:I2104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74027,6 +74027,41 @@
         <v>6058900</v>
       </c>
     </row>
+    <row r="2104">
+      <c r="A2104" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2104" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G2104" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H2104" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2104" t="n">
+        <v>9037100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2104"/>
+  <dimension ref="A1:I2105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74062,6 +74062,41 @@
         <v>9037100</v>
       </c>
     </row>
+    <row r="2105">
+      <c r="A2105" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2105" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2105" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2105" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I2105" t="n">
+        <v>12686400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2105"/>
+  <dimension ref="A1:I2106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74097,6 +74097,41 @@
         <v>12686400</v>
       </c>
     </row>
+    <row r="2106">
+      <c r="A2106" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2106" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G2106" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2106" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2106" t="n">
+        <v>10261100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2106"/>
+  <dimension ref="A1:I2107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74132,6 +74132,41 @@
         <v>10261100</v>
       </c>
     </row>
+    <row r="2107">
+      <c r="A2107" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2107" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2107" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2107" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2107" t="n">
+        <v>16491200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2107"/>
+  <dimension ref="A1:I2108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74167,6 +74167,41 @@
         <v>16491200</v>
       </c>
     </row>
+    <row r="2108">
+      <c r="A2108" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2108" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2108" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2108" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2108" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2108" t="n">
+        <v>6926700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2108"/>
+  <dimension ref="A1:I2109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74202,6 +74202,41 @@
         <v>6926700</v>
       </c>
     </row>
+    <row r="2109">
+      <c r="A2109" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2109" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2109" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2109" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2109" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2109" t="n">
+        <v>8548300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2109"/>
+  <dimension ref="A1:I2110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74237,6 +74237,41 @@
         <v>8548300</v>
       </c>
     </row>
+    <row r="2110">
+      <c r="A2110" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2110" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2110" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2110" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2110" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2110" t="n">
+        <v>7603100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2110"/>
+  <dimension ref="A1:I2111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74272,6 +74272,41 @@
         <v>7603100</v>
       </c>
     </row>
+    <row r="2111">
+      <c r="A2111" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2111" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2111" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2111" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2111" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2111" t="n">
+        <v>6105500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2111"/>
+  <dimension ref="A1:I2112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74307,6 +74307,41 @@
         <v>6105500</v>
       </c>
     </row>
+    <row r="2112">
+      <c r="A2112" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2112" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2112" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2112" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2112" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2112" t="n">
+        <v>7349600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2112"/>
+  <dimension ref="A1:I2113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74342,6 +74342,41 @@
         <v>7349600</v>
       </c>
     </row>
+    <row r="2113">
+      <c r="A2113" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2113" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2113" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2113" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2113" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2113" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2113" t="n">
+        <v>11498000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2113"/>
+  <dimension ref="A1:I2114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74377,6 +74377,41 @@
         <v>11498000</v>
       </c>
     </row>
+    <row r="2114">
+      <c r="A2114" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2114" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2114" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2114" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2114" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2114" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2114" t="n">
+        <v>15010900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2114"/>
+  <dimension ref="A1:I2115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74412,6 +74412,41 @@
         <v>15010900</v>
       </c>
     </row>
+    <row r="2115">
+      <c r="A2115" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2115" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2115" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F2115" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2115" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2115" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2115" t="n">
+        <v>10953400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2115"/>
+  <dimension ref="A1:I2117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74447,6 +74447,76 @@
         <v>10953400</v>
       </c>
     </row>
+    <row r="2116">
+      <c r="A2116" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2116" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2116" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2116" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2116" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H2116" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2116" t="n">
+        <v>3883900</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2117" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F2117" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G2117" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2117" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I2117" t="n">
+        <v>11086600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2117"/>
+  <dimension ref="A1:I2118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74517,6 +74517,41 @@
         <v>11086600</v>
       </c>
     </row>
+    <row r="2118">
+      <c r="A2118" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2118" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2118" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2118" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2118" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2118" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2118" t="n">
+        <v>6584000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2118"/>
+  <dimension ref="A1:I2121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74552,6 +74552,111 @@
         <v>6584000</v>
       </c>
     </row>
+    <row r="2119">
+      <c r="A2119" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2119" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2119" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2119" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2119" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H2119" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2119" t="n">
+        <v>9790500</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2120" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2120" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G2120" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2120" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2120" t="n">
+        <v>8869700</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2121" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2121" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2121" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2121" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2121" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2121" t="n">
+        <v>3696500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2121"/>
+  <dimension ref="A1:I2122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74657,6 +74657,41 @@
         <v>3696500</v>
       </c>
     </row>
+    <row r="2122">
+      <c r="A2122" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2122" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2122" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2122" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2122" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2122" t="n">
+        <v>11807500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2122"/>
+  <dimension ref="A1:I2123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74692,6 +74692,41 @@
         <v>11807500</v>
       </c>
     </row>
+    <row r="2123">
+      <c r="A2123" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2123" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F2123" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2123" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2123" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2123" t="n">
+        <v>11684500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0162.xlsx
+++ b/data/0162.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2123"/>
+  <dimension ref="A1:I2126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74727,6 +74727,111 @@
         <v>11684500</v>
       </c>
     </row>
+    <row r="2124">
+      <c r="A2124" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2124" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2124" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2124" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2124" t="n">
+        <v>7151400</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2125" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2125" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2125" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2125" t="n">
+        <v>3871800</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>WIDAD</t>
+        </is>
+      </c>
+      <c r="E2126" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2126" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2126" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2126" t="n">
+        <v>11950400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
